--- a/Daten/20190412_Koordinaten.xlsx
+++ b/Daten/20190412_Koordinaten.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="370">
   <si>
     <t>Tabelle 1</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>Personen</t>
+  </si>
+  <si>
+    <t>Inhaber</t>
+  </si>
+  <si>
+    <t>Bier</t>
+  </si>
+  <si>
+    <t>bereits transkribiert</t>
   </si>
   <si>
     <t>Armbrustschützenzelt</t>
@@ -1181,6 +1190,9 @@
   </si>
   <si>
     <t>Holzkirchner Bahnhof, Gaststätten am</t>
+  </si>
+  <si>
+    <t>Bayerstraße 14</t>
   </si>
   <si>
     <t>Holzmüllerstuben</t>
@@ -1816,7 +1828,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1832,7 +1844,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1943,6 +1955,9 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1974,6 +1989,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3068,7 +3086,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M162"/>
+  <dimension ref="A2:O162"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -3078,8 +3096,8 @@
   <cols>
     <col min="1" max="10" width="16.3516" style="1" customWidth="1"/>
     <col min="11" max="11" width="59.4531" style="1" customWidth="1"/>
-    <col min="12" max="13" width="16.3516" style="1" customWidth="1"/>
-    <col min="14" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="12" max="15" width="16.3516" style="1" customWidth="1"/>
+    <col min="16" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -3098,6 +3116,8 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" ht="32.25" customHeight="1">
       <c r="A2" s="3"/>
@@ -3137,27 +3157,35 @@
       <c r="M2" t="s" s="4">
         <v>12</v>
       </c>
+      <c r="N2" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" ht="128.25" customHeight="1">
-      <c r="A3" s="5"/>
+      <c r="A3" t="s" s="5">
+        <v>15</v>
+      </c>
       <c r="B3" t="s" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7">
         <v>1975</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" t="s" s="9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s" s="10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s" s="10">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s" s="10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="7">
@@ -3166,30 +3194,32 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
     </row>
     <row r="4" ht="68.05" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" t="s" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="13">
         <v>19591027</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" t="s" s="15">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s" s="16">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s" s="15">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s" s="15">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s" s="15">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J4" s="13">
         <v>0</v>
@@ -3197,280 +3227,300 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" ht="36.35" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" t="s" s="17">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="18">
         <v>1917</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" t="s" s="20">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s" s="21">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s" s="20">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" t="s" s="20">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s" s="23">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s" s="23">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" ht="36.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" t="s" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="13">
         <v>19182801</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" t="s" s="15">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s" s="16">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s" s="15">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" t="s" s="15">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s" s="24">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s" s="15">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" ht="37" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" t="s" s="17">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="18">
         <v>19180418</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" t="s" s="20">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s" s="21">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s" s="20">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" t="s" s="20">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s" s="25">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s" s="20">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
     </row>
     <row r="8" ht="68.7" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" t="s" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s" s="15">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" t="s" s="15">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" t="s" s="15">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s" s="15">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s" s="15">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s" s="26">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s" s="15">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
     </row>
     <row r="9" ht="80.35" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" t="s" s="17">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s" s="20">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" t="s" s="20">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s" s="21">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s" s="20">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s" s="20">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="27"/>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
     </row>
     <row r="10" ht="32.05" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" t="s" s="12">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s" s="15">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" t="s" s="15">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s" s="15">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" t="s" s="15">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" t="s" s="15">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" ht="32.05" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" t="s" s="17">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s" s="20">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" t="s" s="20">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s" s="20">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" t="s" s="20">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" t="s" s="20">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
     </row>
     <row r="12" ht="56.05" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" t="s" s="12">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C12" s="13">
         <v>1938</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" t="s" s="15">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s" s="15">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" t="s" s="15">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" t="s" s="15">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="13" ht="36.35" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" t="s" s="17">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C13" s="18">
         <v>19430308</v>
       </c>
       <c r="D13" t="s" s="20">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s" s="20">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s" s="21">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" t="s" s="20">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
     </row>
     <row r="14" ht="36.35" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" t="s" s="12">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" t="s" s="15">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s" s="15">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s" s="16">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -3479,21 +3529,23 @@
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
     </row>
     <row r="15" ht="44.05" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" t="s" s="17">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" t="s" s="20">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s" s="20">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s" s="21">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -3502,40 +3554,44 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
     </row>
     <row r="16" ht="56.05" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" t="s" s="12">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C16" s="13">
         <v>1959</v>
       </c>
       <c r="D16" t="s" s="15">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s" s="15">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s" s="15">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" t="s" s="15">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" t="s" s="15">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
     </row>
     <row r="17" ht="56.65" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" t="s" s="28">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C17" s="18">
         <v>19390715</v>
@@ -3544,25 +3600,27 @@
         <v>50622</v>
       </c>
       <c r="E17" t="s" s="20">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s" s="20">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" t="s" s="20">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
     </row>
     <row r="18" ht="37" customHeight="1">
       <c r="A18" s="29"/>
       <c r="B18" t="s" s="30">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C18" s="31">
         <v>1965</v>
@@ -3570,7 +3628,7 @@
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" t="s" s="16">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -3579,11 +3637,13 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
     </row>
     <row r="19" ht="35" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" t="s" s="32">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -3595,14 +3655,16 @@
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
       <c r="L19" t="s" s="20">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
     </row>
     <row r="20" ht="21" customHeight="1">
       <c r="A20" s="29"/>
       <c r="B20" t="s" s="33">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="14"/>
@@ -3610,18 +3672,20 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" t="s" s="15">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
     </row>
     <row r="21" ht="32.7" customHeight="1">
       <c r="A21" s="29"/>
       <c r="B21" t="s" s="35">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C21" s="36">
         <v>1960</v>
@@ -3630,25 +3694,27 @@
         <v>65248</v>
       </c>
       <c r="E21" t="s" s="20">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="20">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" t="s" s="20">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
     </row>
     <row r="22" ht="33" customHeight="1">
       <c r="A22" s="29"/>
       <c r="B22" t="s" s="30">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C22" s="31">
         <v>19380821</v>
@@ -3657,104 +3723,112 @@
         <v>52413</v>
       </c>
       <c r="E22" t="s" s="15">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s" s="15">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
       <c r="K22" t="s" s="15">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
     </row>
     <row r="23" ht="44.35" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" t="s" s="37">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s" s="20">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" t="s" s="20">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s" s="20">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" t="s" s="20">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
     </row>
     <row r="24" ht="32.35" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" t="s" s="38">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C24" s="13">
         <v>19380826</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" t="s" s="15">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F24" t="s" s="15">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" t="s" s="15">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
       <c r="K24" t="s" s="15">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
     </row>
     <row r="25" ht="68.05" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" t="s" s="39">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C25" s="18">
         <v>1916</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" t="s" s="20">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" t="s" s="20">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I25" t="s" s="20">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J25" s="22"/>
       <c r="K25" t="s" s="20">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
     </row>
     <row r="26" ht="68.05" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" t="s" s="38">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C26" s="13">
         <v>1917</v>
@@ -3763,112 +3837,120 @@
         <v>8622</v>
       </c>
       <c r="E26" t="s" s="15">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" t="s" s="15">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I26" t="s" s="15">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J26" s="14"/>
       <c r="K26" t="s" s="15">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
     </row>
     <row r="27" ht="68.05" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" t="s" s="39">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C27" s="18">
         <v>1915</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" t="s" s="20">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
       <c r="H27" t="s" s="20">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I27" t="s" s="20">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J27" s="22"/>
       <c r="K27" t="s" s="20">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
     </row>
     <row r="28" ht="200.05" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" t="s" s="38">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s" s="15">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s" s="15">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s" s="15">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F28" t="s" s="15">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" t="s" s="15">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" t="s" s="15">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
     </row>
     <row r="29" ht="68.35" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" t="s" s="28">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s" s="20">
+        <v>105</v>
+      </c>
+      <c r="D29" t="s" s="20">
+        <v>106</v>
+      </c>
+      <c r="E29" t="s" s="20">
+        <v>107</v>
+      </c>
+      <c r="F29" t="s" s="20">
         <v>108</v>
-      </c>
-      <c r="C29" t="s" s="20">
-        <v>102</v>
-      </c>
-      <c r="D29" t="s" s="20">
-        <v>103</v>
-      </c>
-      <c r="E29" t="s" s="20">
-        <v>104</v>
-      </c>
-      <c r="F29" t="s" s="20">
-        <v>105</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" t="s" s="20">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" t="s" s="20">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
     </row>
     <row r="30" ht="45" customHeight="1">
       <c r="A30" s="29"/>
       <c r="B30" t="s" s="40">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C30" s="34"/>
       <c r="D30" s="14"/>
@@ -3881,40 +3963,44 @@
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
     </row>
     <row r="31" ht="116.35" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" t="s" s="37">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C31" s="18">
         <v>19380821</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" t="s" s="20">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" t="s" s="20">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H31" t="s" s="20">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I31" t="s" s="20">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
     </row>
     <row r="32" ht="32.05" customHeight="1">
       <c r="A32" t="s" s="41">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s" s="38">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -3922,186 +4008,200 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" t="s" s="15">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
     </row>
     <row r="33" ht="68.05" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" t="s" s="39">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s" s="20">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s" s="20">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s" s="20">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F33" t="s" s="20">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" t="s" s="20">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" t="s" s="20">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
     </row>
     <row r="34" ht="68.05" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" t="s" s="38">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s" s="15">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" t="s" s="15">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F34" t="s" s="15">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
       <c r="K34" t="s" s="15">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
     </row>
     <row r="35" ht="188.05" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" t="s" s="39">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C35" s="18">
         <v>19190715</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" t="s" s="20">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" t="s" s="20">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H35" t="s" s="20">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I35" t="s" s="20">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J35" s="22"/>
       <c r="K35" t="s" s="20">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
     </row>
     <row r="36" ht="116.05" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" t="s" s="38">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C36" s="13">
         <v>19380827</v>
       </c>
       <c r="D36" t="s" s="15">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E36" t="s" s="15">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F36" t="s" s="15">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" t="s" s="15">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" t="s" s="15">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
     </row>
     <row r="37" ht="80.05" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" t="s" s="39">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C37" s="18">
         <v>19380709</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" t="s" s="20">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F37" t="s" s="20">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" t="s" s="20">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" t="s" s="20">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
     </row>
     <row r="38" ht="80.05" customHeight="1">
       <c r="A38" s="11"/>
       <c r="B38" t="s" s="38">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C38" s="13">
         <v>19170208</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" t="s" s="16">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F38" t="s" s="15">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G38" t="s" s="15">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" t="s" s="15">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L38" s="14"/>
       <c r="M38" t="s" s="16">
-        <v>154</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
     </row>
     <row r="39" ht="32.65" customHeight="1">
       <c r="A39" s="11"/>
       <c r="B39" t="s" s="28">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C39" s="18">
         <v>19390712</v>
@@ -4110,27 +4210,29 @@
         <v>57175</v>
       </c>
       <c r="E39" t="s" s="20">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F39" t="s" s="20">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G39" s="22"/>
       <c r="H39" t="s" s="20">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
       <c r="K39" t="s" s="20">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
     </row>
     <row r="40" ht="80.7" customHeight="1">
       <c r="A40" s="29"/>
       <c r="B40" t="s" s="30">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C40" s="31">
         <v>1965</v>
@@ -4138,26 +4240,28 @@
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" t="s" s="15">
+        <v>164</v>
+      </c>
+      <c r="G40" t="s" s="15">
+        <v>43</v>
+      </c>
+      <c r="H40" t="s" s="15">
         <v>161</v>
-      </c>
-      <c r="G40" t="s" s="15">
-        <v>40</v>
-      </c>
-      <c r="H40" t="s" s="15">
-        <v>158</v>
       </c>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" t="s" s="15">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
     </row>
     <row r="41" ht="68.35" customHeight="1">
       <c r="A41" s="11"/>
       <c r="B41" t="s" s="37">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C41" s="18">
         <v>19381019</v>
@@ -4166,83 +4270,89 @@
         <v>51748</v>
       </c>
       <c r="E41" t="s" s="20">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F41" t="s" s="20">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G41" s="22"/>
       <c r="H41" t="s" s="20">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" t="s" s="20">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L41" s="22"/>
       <c r="M41" t="s" s="20">
-        <v>168</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
     </row>
     <row r="42" ht="32.35" customHeight="1">
       <c r="A42" s="11"/>
       <c r="B42" t="s" s="38">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C42" s="13">
         <v>1916</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" t="s" s="15">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F42" t="s" s="15">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" t="s" s="15">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" t="s" s="15">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
     </row>
     <row r="43" ht="116.05" customHeight="1">
       <c r="A43" s="11"/>
       <c r="B43" t="s" s="39">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s" s="20">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D43" t="s" s="20">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E43" t="s" s="20">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F43" t="s" s="20">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" t="s" s="20">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
     </row>
     <row r="44" ht="32.35" customHeight="1">
       <c r="A44" s="11"/>
-      <c r="B44" t="s" s="42">
-        <v>180</v>
+      <c r="B44" t="s" s="43">
+        <v>183</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
@@ -4255,38 +4365,42 @@
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
     </row>
     <row r="45" ht="80.05" customHeight="1">
       <c r="A45" s="11"/>
       <c r="B45" t="s" s="39">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C45" s="18">
         <v>19180904</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" t="s" s="20">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F45" t="s" s="20">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" t="s" s="20">
-        <v>184</v>
-      </c>
-      <c r="L45" t="s" s="43">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="L45" t="s" s="44">
+        <v>188</v>
       </c>
       <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
     </row>
     <row r="46" ht="32.35" customHeight="1">
       <c r="A46" s="11"/>
       <c r="B46" t="s" s="38">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C46" s="13">
         <v>19750914</v>
@@ -4295,216 +4409,232 @@
         <v>478841</v>
       </c>
       <c r="E46" t="s" s="15">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F46" t="s" s="15">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
       <c r="K46" t="s" s="15">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
     </row>
     <row r="47" ht="104.05" customHeight="1">
       <c r="A47" s="11"/>
       <c r="B47" t="s" s="39">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C47" t="s" s="20">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D47" t="s" s="20">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E47" t="s" s="20">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F47" t="s" s="20">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
       <c r="K47" t="s" s="20">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
     </row>
     <row r="48" ht="56.35" customHeight="1">
       <c r="A48" s="11"/>
       <c r="B48" t="s" s="38">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C48" t="s" s="15">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D48" t="s" s="15">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E48" t="s" s="15">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F48" t="s" s="15">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" t="s" s="15">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
       <c r="K48" t="s" s="15">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L48" s="14"/>
       <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
     </row>
     <row r="49" ht="68.05" customHeight="1">
       <c r="A49" s="11"/>
       <c r="B49" t="s" s="39">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C49" t="s" s="20">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D49" t="s" s="20">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E49" t="s" s="20">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F49" t="s" s="20">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
       <c r="K49" t="s" s="20">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
     </row>
     <row r="50" ht="32.35" customHeight="1">
       <c r="A50" s="11"/>
       <c r="B50" t="s" s="38">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C50" s="13">
         <v>19380826</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" t="s" s="15">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F50" t="s" s="15">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
       <c r="K50" t="s" s="15">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
     </row>
     <row r="51" ht="44.35" customHeight="1">
       <c r="A51" s="11"/>
       <c r="B51" t="s" s="39">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C51" s="18">
         <v>19390716</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" t="s" s="20">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F51" t="s" s="20">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
       <c r="K51" t="s" s="20">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
     </row>
     <row r="52" ht="104.05" customHeight="1">
       <c r="A52" s="11"/>
       <c r="B52" t="s" s="38">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C52" t="s" s="15">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D52" t="s" s="15">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E52" t="s" s="15">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F52" t="s" s="15">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G52" t="s" s="15">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H52" t="s" s="15">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
       <c r="K52" t="s" s="15">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
     </row>
     <row r="53" ht="44.05" customHeight="1">
       <c r="A53" s="11"/>
       <c r="B53" t="s" s="39">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C53" t="s" s="20">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D53" t="s" s="20">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E53" t="s" s="20">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F53" t="s" s="20">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
       <c r="K53" t="s" s="20">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
     </row>
     <row r="54" ht="32.35" customHeight="1">
       <c r="A54" s="11"/>
-      <c r="B54" t="s" s="42">
-        <v>231</v>
+      <c r="B54" t="s" s="43">
+        <v>234</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
@@ -4517,123 +4647,133 @@
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
       <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
     </row>
     <row r="55" ht="80.05" customHeight="1">
       <c r="A55" s="11"/>
       <c r="B55" t="s" s="39">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C55" t="s" s="20">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D55" t="s" s="20">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E55" t="s" s="20">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F55" t="s" s="20">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G55" t="s" s="20">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H55" t="s" s="20">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I55" s="22"/>
       <c r="J55" s="22"/>
       <c r="K55" t="s" s="20">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
     </row>
     <row r="56" ht="56.35" customHeight="1">
       <c r="A56" s="11"/>
-      <c r="B56" t="s" s="44">
-        <v>239</v>
+      <c r="B56" t="s" s="45">
+        <v>242</v>
       </c>
       <c r="C56" s="13">
         <v>1967</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" t="s" s="15">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F56" t="s" s="15">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
       <c r="K56" t="s" s="15">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L56" s="14"/>
       <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
     </row>
     <row r="57" ht="45" customHeight="1">
       <c r="A57" s="29"/>
       <c r="B57" t="s" s="35">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C57" s="36">
         <v>19380827</v>
       </c>
       <c r="D57" t="s" s="20">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E57" t="s" s="20">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F57" t="s" s="20">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
       <c r="K57" t="s" s="20">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L57" s="22"/>
       <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
     </row>
     <row r="58" ht="92.35" customHeight="1">
       <c r="A58" s="11"/>
-      <c r="B58" t="s" s="45">
-        <v>248</v>
+      <c r="B58" t="s" s="46">
+        <v>251</v>
       </c>
       <c r="C58" t="s" s="15">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D58" t="s" s="15">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E58" t="s" s="15">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F58" t="s" s="15">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G58" t="s" s="15">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
       <c r="K58" t="s" s="15">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L58" s="14"/>
       <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
     </row>
     <row r="59" ht="32.65" customHeight="1">
       <c r="A59" s="11"/>
-      <c r="B59" t="s" s="46">
-        <v>255</v>
+      <c r="B59" t="s" s="47">
+        <v>258</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
@@ -4646,11 +4786,13 @@
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
       <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
     </row>
     <row r="60" ht="33" customHeight="1">
       <c r="A60" s="29"/>
       <c r="B60" t="s" s="40">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C60" s="34"/>
       <c r="D60" s="14"/>
@@ -4663,11 +4805,13 @@
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
     </row>
     <row r="61" ht="32.65" customHeight="1">
       <c r="A61" s="11"/>
-      <c r="B61" t="s" s="47">
-        <v>257</v>
+      <c r="B61" t="s" s="48">
+        <v>260</v>
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
@@ -4675,74 +4819,86 @@
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
       <c r="H61" t="s" s="20">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I61" s="22"/>
       <c r="J61" s="22"/>
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
       <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
     </row>
     <row r="62" ht="128.05" customHeight="1">
       <c r="A62" s="11"/>
       <c r="B62" t="s" s="38">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C62" s="13">
         <v>1959</v>
       </c>
       <c r="D62" t="s" s="15">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E62" t="s" s="15">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
       <c r="H62" t="s" s="15">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I62" t="s" s="15">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="J62" s="14"/>
       <c r="K62" t="s" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L62" s="14"/>
       <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
     </row>
     <row r="63" ht="56.35" customHeight="1">
       <c r="A63" s="11"/>
       <c r="B63" t="s" s="39">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C63" t="s" s="20">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
       <c r="G63" s="22"/>
       <c r="H63" t="s" s="20">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I63" t="s" s="20">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="J63" s="22"/>
       <c r="K63" s="22"/>
       <c r="L63" s="22"/>
       <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
     </row>
     <row r="64" ht="44.65" customHeight="1">
       <c r="A64" s="11"/>
-      <c r="B64" t="s" s="44">
-        <v>268</v>
-      </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
+      <c r="B64" t="s" s="45">
+        <v>271</v>
+      </c>
+      <c r="C64" s="13">
+        <v>19380827</v>
+      </c>
+      <c r="D64" s="13">
+        <v>55989</v>
+      </c>
+      <c r="E64" t="s" s="15">
+        <v>272</v>
+      </c>
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
@@ -4751,13 +4907,15 @@
       <c r="K64" s="14"/>
       <c r="L64" s="14"/>
       <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
     </row>
     <row r="65" ht="21" customHeight="1">
       <c r="A65" s="29"/>
       <c r="B65" t="s" s="35">
-        <v>269</v>
-      </c>
-      <c r="C65" s="48"/>
+        <v>273</v>
+      </c>
+      <c r="C65" s="49"/>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
@@ -4768,11 +4926,13 @@
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
       <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
     </row>
     <row r="66" ht="21" customHeight="1">
       <c r="A66" s="29"/>
       <c r="B66" t="s" s="30">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C66" s="34"/>
       <c r="D66" s="14"/>
@@ -4785,13 +4945,15 @@
       <c r="K66" s="14"/>
       <c r="L66" s="14"/>
       <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
     </row>
     <row r="67" ht="33" customHeight="1">
       <c r="A67" s="29"/>
       <c r="B67" t="s" s="35">
-        <v>271</v>
-      </c>
-      <c r="C67" s="48"/>
+        <v>275</v>
+      </c>
+      <c r="C67" s="49"/>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
@@ -4802,11 +4964,13 @@
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
       <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
     </row>
     <row r="68" ht="32.65" customHeight="1">
       <c r="A68" s="11"/>
-      <c r="B68" t="s" s="45">
-        <v>272</v>
+      <c r="B68" t="s" s="46">
+        <v>276</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
@@ -4819,11 +4983,13 @@
       <c r="K68" s="14"/>
       <c r="L68" s="14"/>
       <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
     </row>
     <row r="69" ht="56.65" customHeight="1">
       <c r="A69" s="11"/>
       <c r="B69" t="s" s="28">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
@@ -4836,11 +5002,13 @@
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
       <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
     </row>
     <row r="70" ht="21" customHeight="1">
       <c r="A70" s="29"/>
       <c r="B70" t="s" s="30">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C70" s="34"/>
       <c r="D70" s="14"/>
@@ -4853,11 +5021,13 @@
       <c r="K70" s="14"/>
       <c r="L70" s="14"/>
       <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
     </row>
     <row r="71" ht="32.65" customHeight="1">
       <c r="A71" s="11"/>
       <c r="B71" t="s" s="37">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
@@ -4870,11 +5040,13 @@
       <c r="K71" s="22"/>
       <c r="L71" s="22"/>
       <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
     </row>
     <row r="72" ht="32.35" customHeight="1">
       <c r="A72" s="11"/>
       <c r="B72" t="s" s="38">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
@@ -4887,11 +5059,13 @@
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
     </row>
     <row r="73" ht="68.35" customHeight="1">
       <c r="A73" s="11"/>
-      <c r="B73" t="s" s="49">
-        <v>277</v>
+      <c r="B73" t="s" s="50">
+        <v>281</v>
       </c>
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
@@ -4899,18 +5073,20 @@
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
       <c r="H73" t="s" s="20">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
       <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
     </row>
     <row r="74" ht="32.35" customHeight="1">
       <c r="A74" s="11"/>
       <c r="B74" t="s" s="38">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
@@ -4923,11 +5099,13 @@
       <c r="K74" s="14"/>
       <c r="L74" s="14"/>
       <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
     </row>
     <row r="75" ht="68.35" customHeight="1">
       <c r="A75" s="11"/>
       <c r="B75" t="s" s="39">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C75" s="22"/>
       <c r="D75" s="22"/>
@@ -4940,11 +5118,13 @@
       <c r="K75" s="22"/>
       <c r="L75" s="22"/>
       <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22"/>
     </row>
     <row r="76" ht="56.35" customHeight="1">
       <c r="A76" s="11"/>
       <c r="B76" t="s" s="38">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
@@ -4957,11 +5137,13 @@
       <c r="K76" s="14"/>
       <c r="L76" s="14"/>
       <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
     </row>
     <row r="77" ht="32.35" customHeight="1">
       <c r="A77" s="11"/>
       <c r="B77" t="s" s="39">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C77" s="22"/>
       <c r="D77" s="22"/>
@@ -4974,11 +5156,13 @@
       <c r="K77" s="22"/>
       <c r="L77" s="22"/>
       <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22"/>
     </row>
     <row r="78" ht="44.35" customHeight="1">
       <c r="A78" s="11"/>
       <c r="B78" t="s" s="38">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C78" s="14"/>
       <c r="D78" s="14"/>
@@ -4991,11 +5175,13 @@
       <c r="K78" s="14"/>
       <c r="L78" s="14"/>
       <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
     </row>
     <row r="79" ht="44.35" customHeight="1">
       <c r="A79" s="11"/>
       <c r="B79" t="s" s="39">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C79" s="22"/>
       <c r="D79" s="22"/>
@@ -5008,13 +5194,15 @@
       <c r="K79" s="22"/>
       <c r="L79" s="22"/>
       <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="22"/>
     </row>
     <row r="80" ht="80.35" customHeight="1">
       <c r="A80" t="s" s="41">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B80" t="s" s="38">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
@@ -5027,11 +5215,13 @@
       <c r="K80" s="14"/>
       <c r="L80" s="14"/>
       <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
     </row>
     <row r="81" ht="32.35" customHeight="1">
       <c r="A81" s="11"/>
       <c r="B81" t="s" s="39">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C81" s="22"/>
       <c r="D81" s="22"/>
@@ -5044,11 +5234,13 @@
       <c r="K81" s="22"/>
       <c r="L81" s="22"/>
       <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="22"/>
     </row>
     <row r="82" ht="20.35" customHeight="1">
       <c r="A82" s="11"/>
       <c r="B82" t="s" s="38">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
@@ -5061,11 +5253,13 @@
       <c r="K82" s="14"/>
       <c r="L82" s="14"/>
       <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
     </row>
     <row r="83" ht="20.35" customHeight="1">
       <c r="A83" s="11"/>
       <c r="B83" t="s" s="39">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C83" s="22"/>
       <c r="D83" s="22"/>
@@ -5078,11 +5272,13 @@
       <c r="K83" s="22"/>
       <c r="L83" s="22"/>
       <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22"/>
     </row>
     <row r="84" ht="20.35" customHeight="1">
       <c r="A84" s="11"/>
       <c r="B84" t="s" s="38">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
@@ -5095,11 +5291,13 @@
       <c r="K84" s="14"/>
       <c r="L84" s="14"/>
       <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
     </row>
     <row r="85" ht="20.35" customHeight="1">
       <c r="A85" s="11"/>
       <c r="B85" t="s" s="39">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
@@ -5112,11 +5310,13 @@
       <c r="K85" s="22"/>
       <c r="L85" s="22"/>
       <c r="M85" s="22"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="22"/>
     </row>
     <row r="86" ht="32.35" customHeight="1">
       <c r="A86" s="11"/>
       <c r="B86" t="s" s="38">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
@@ -5129,11 +5329,13 @@
       <c r="K86" s="14"/>
       <c r="L86" s="14"/>
       <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
     </row>
     <row r="87" ht="32.35" customHeight="1">
       <c r="A87" s="11"/>
       <c r="B87" t="s" s="39">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C87" s="22"/>
       <c r="D87" s="22"/>
@@ -5146,11 +5348,13 @@
       <c r="K87" s="22"/>
       <c r="L87" s="22"/>
       <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="22"/>
     </row>
     <row r="88" ht="20.35" customHeight="1">
       <c r="A88" s="11"/>
       <c r="B88" t="s" s="38">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
@@ -5163,11 +5367,13 @@
       <c r="K88" s="14"/>
       <c r="L88" s="14"/>
       <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
     </row>
     <row r="89" ht="32.35" customHeight="1">
       <c r="A89" s="11"/>
       <c r="B89" t="s" s="39">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C89" s="22"/>
       <c r="D89" s="22"/>
@@ -5180,11 +5386,13 @@
       <c r="K89" s="22"/>
       <c r="L89" s="22"/>
       <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="22"/>
     </row>
     <row r="90" ht="32.35" customHeight="1">
       <c r="A90" s="11"/>
       <c r="B90" t="s" s="38">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C90" s="14"/>
       <c r="D90" s="14"/>
@@ -5197,11 +5405,13 @@
       <c r="K90" s="14"/>
       <c r="L90" s="14"/>
       <c r="M90" s="14"/>
+      <c r="N90" s="14"/>
+      <c r="O90" s="14"/>
     </row>
     <row r="91" ht="32.35" customHeight="1">
       <c r="A91" s="11"/>
       <c r="B91" t="s" s="39">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
@@ -5214,11 +5424,13 @@
       <c r="K91" s="22"/>
       <c r="L91" s="22"/>
       <c r="M91" s="22"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="22"/>
     </row>
     <row r="92" ht="32.35" customHeight="1">
       <c r="A92" s="11"/>
       <c r="B92" t="s" s="38">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C92" s="14"/>
       <c r="D92" s="14"/>
@@ -5231,11 +5443,13 @@
       <c r="K92" s="14"/>
       <c r="L92" s="14"/>
       <c r="M92" s="14"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="14"/>
     </row>
     <row r="93" ht="32.35" customHeight="1">
       <c r="A93" s="11"/>
       <c r="B93" t="s" s="39">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C93" s="22"/>
       <c r="D93" s="22"/>
@@ -5248,11 +5462,13 @@
       <c r="K93" s="22"/>
       <c r="L93" s="22"/>
       <c r="M93" s="22"/>
+      <c r="N93" s="22"/>
+      <c r="O93" s="22"/>
     </row>
     <row r="94" ht="32.35" customHeight="1">
       <c r="A94" s="11"/>
       <c r="B94" t="s" s="38">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C94" s="14"/>
       <c r="D94" s="14"/>
@@ -5265,11 +5481,13 @@
       <c r="K94" s="14"/>
       <c r="L94" s="14"/>
       <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="14"/>
     </row>
     <row r="95" ht="32.35" customHeight="1">
       <c r="A95" s="11"/>
       <c r="B95" t="s" s="39">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C95" s="22"/>
       <c r="D95" s="22"/>
@@ -5282,11 +5500,13 @@
       <c r="K95" s="22"/>
       <c r="L95" s="22"/>
       <c r="M95" s="22"/>
+      <c r="N95" s="22"/>
+      <c r="O95" s="22"/>
     </row>
     <row r="96" ht="32.35" customHeight="1">
       <c r="A96" s="11"/>
       <c r="B96" t="s" s="38">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
@@ -5299,11 +5519,13 @@
       <c r="K96" s="14"/>
       <c r="L96" s="14"/>
       <c r="M96" s="14"/>
+      <c r="N96" s="14"/>
+      <c r="O96" s="14"/>
     </row>
     <row r="97" ht="32.35" customHeight="1">
       <c r="A97" s="11"/>
       <c r="B97" t="s" s="39">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C97" s="22"/>
       <c r="D97" s="22"/>
@@ -5316,11 +5538,13 @@
       <c r="K97" s="22"/>
       <c r="L97" s="22"/>
       <c r="M97" s="22"/>
+      <c r="N97" s="22"/>
+      <c r="O97" s="22"/>
     </row>
     <row r="98" ht="32.35" customHeight="1">
       <c r="A98" s="11"/>
       <c r="B98" t="s" s="38">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
@@ -5333,11 +5557,13 @@
       <c r="K98" s="14"/>
       <c r="L98" s="14"/>
       <c r="M98" s="14"/>
+      <c r="N98" s="14"/>
+      <c r="O98" s="14"/>
     </row>
     <row r="99" ht="32.35" customHeight="1">
       <c r="A99" s="11"/>
       <c r="B99" t="s" s="39">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C99" s="22"/>
       <c r="D99" s="22"/>
@@ -5350,11 +5576,13 @@
       <c r="K99" s="22"/>
       <c r="L99" s="22"/>
       <c r="M99" s="22"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="22"/>
     </row>
     <row r="100" ht="44.35" customHeight="1">
       <c r="A100" s="11"/>
       <c r="B100" t="s" s="38">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
@@ -5367,11 +5595,13 @@
       <c r="K100" s="14"/>
       <c r="L100" s="14"/>
       <c r="M100" s="14"/>
+      <c r="N100" s="14"/>
+      <c r="O100" s="14"/>
     </row>
     <row r="101" ht="32.35" customHeight="1">
       <c r="A101" s="11"/>
       <c r="B101" t="s" s="39">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C101" s="22"/>
       <c r="D101" s="22"/>
@@ -5384,11 +5614,13 @@
       <c r="K101" s="22"/>
       <c r="L101" s="22"/>
       <c r="M101" s="22"/>
+      <c r="N101" s="22"/>
+      <c r="O101" s="22"/>
     </row>
     <row r="102" ht="20.35" customHeight="1">
       <c r="A102" s="11"/>
       <c r="B102" t="s" s="38">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
@@ -5401,13 +5633,15 @@
       <c r="K102" s="14"/>
       <c r="L102" s="14"/>
       <c r="M102" s="14"/>
+      <c r="N102" s="14"/>
+      <c r="O102" s="14"/>
     </row>
     <row r="103" ht="32.35" customHeight="1">
       <c r="A103" t="s" s="41">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B103" t="s" s="39">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C103" s="22"/>
       <c r="D103" s="22"/>
@@ -5420,11 +5654,13 @@
       <c r="K103" s="22"/>
       <c r="L103" s="22"/>
       <c r="M103" s="22"/>
+      <c r="N103" s="22"/>
+      <c r="O103" s="22"/>
     </row>
     <row r="104" ht="32.65" customHeight="1">
       <c r="A104" s="11"/>
-      <c r="B104" t="s" s="44">
-        <v>310</v>
+      <c r="B104" t="s" s="45">
+        <v>314</v>
       </c>
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
@@ -5437,13 +5673,15 @@
       <c r="K104" s="14"/>
       <c r="L104" s="14"/>
       <c r="M104" s="14"/>
+      <c r="N104" s="14"/>
+      <c r="O104" s="14"/>
     </row>
     <row r="105" ht="45" customHeight="1">
       <c r="A105" s="29"/>
       <c r="B105" t="s" s="35">
-        <v>311</v>
-      </c>
-      <c r="C105" s="48"/>
+        <v>315</v>
+      </c>
+      <c r="C105" s="49"/>
       <c r="D105" s="22"/>
       <c r="E105" s="22"/>
       <c r="F105" s="22"/>
@@ -5454,11 +5692,13 @@
       <c r="K105" s="22"/>
       <c r="L105" s="22"/>
       <c r="M105" s="22"/>
+      <c r="N105" s="22"/>
+      <c r="O105" s="22"/>
     </row>
     <row r="106" ht="44.65" customHeight="1">
       <c r="A106" s="11"/>
-      <c r="B106" t="s" s="45">
-        <v>312</v>
+      <c r="B106" t="s" s="46">
+        <v>316</v>
       </c>
       <c r="C106" s="14"/>
       <c r="D106" s="14"/>
@@ -5471,11 +5711,13 @@
       <c r="K106" s="14"/>
       <c r="L106" s="14"/>
       <c r="M106" s="14"/>
+      <c r="N106" s="14"/>
+      <c r="O106" s="14"/>
     </row>
     <row r="107" ht="32.65" customHeight="1">
       <c r="A107" s="11"/>
       <c r="B107" t="s" s="28">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C107" s="22"/>
       <c r="D107" s="22"/>
@@ -5488,11 +5730,13 @@
       <c r="K107" s="22"/>
       <c r="L107" s="22"/>
       <c r="M107" s="22"/>
+      <c r="N107" s="22"/>
+      <c r="O107" s="22"/>
     </row>
     <row r="108" ht="21" customHeight="1">
       <c r="A108" s="29"/>
       <c r="B108" t="s" s="30">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C108" s="34"/>
       <c r="D108" s="14"/>
@@ -5505,11 +5749,13 @@
       <c r="K108" s="14"/>
       <c r="L108" s="14"/>
       <c r="M108" s="14"/>
+      <c r="N108" s="14"/>
+      <c r="O108" s="14"/>
     </row>
     <row r="109" ht="33" customHeight="1">
       <c r="A109" s="11"/>
-      <c r="B109" t="s" s="50">
-        <v>315</v>
+      <c r="B109" t="s" s="51">
+        <v>319</v>
       </c>
       <c r="C109" s="22"/>
       <c r="D109" s="22"/>
@@ -5522,11 +5768,13 @@
       <c r="K109" s="22"/>
       <c r="L109" s="22"/>
       <c r="M109" s="22"/>
+      <c r="N109" s="22"/>
+      <c r="O109" s="22"/>
     </row>
     <row r="110" ht="33" customHeight="1">
       <c r="A110" s="29"/>
       <c r="B110" t="s" s="30">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C110" s="34"/>
       <c r="D110" s="14"/>
@@ -5539,13 +5787,15 @@
       <c r="K110" s="14"/>
       <c r="L110" s="14"/>
       <c r="M110" s="14"/>
+      <c r="N110" s="14"/>
+      <c r="O110" s="14"/>
     </row>
     <row r="111" ht="33" customHeight="1">
       <c r="A111" s="29"/>
       <c r="B111" t="s" s="35">
-        <v>317</v>
-      </c>
-      <c r="C111" s="48"/>
+        <v>321</v>
+      </c>
+      <c r="C111" s="49"/>
       <c r="D111" s="22"/>
       <c r="E111" s="22"/>
       <c r="F111" s="22"/>
@@ -5556,11 +5806,13 @@
       <c r="K111" s="22"/>
       <c r="L111" s="22"/>
       <c r="M111" s="22"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="22"/>
     </row>
     <row r="112" ht="44.65" customHeight="1">
       <c r="A112" s="11"/>
-      <c r="B112" t="s" s="45">
-        <v>318</v>
+      <c r="B112" t="s" s="46">
+        <v>322</v>
       </c>
       <c r="C112" s="14"/>
       <c r="D112" s="14"/>
@@ -5573,11 +5825,13 @@
       <c r="K112" s="14"/>
       <c r="L112" s="14"/>
       <c r="M112" s="14"/>
+      <c r="N112" s="14"/>
+      <c r="O112" s="14"/>
     </row>
     <row r="113" ht="56.35" customHeight="1">
       <c r="A113" s="11"/>
       <c r="B113" t="s" s="39">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C113" s="22"/>
       <c r="D113" s="22"/>
@@ -5590,11 +5844,13 @@
       <c r="K113" s="22"/>
       <c r="L113" s="22"/>
       <c r="M113" s="22"/>
+      <c r="N113" s="22"/>
+      <c r="O113" s="22"/>
     </row>
     <row r="114" ht="32.35" customHeight="1">
       <c r="A114" s="11"/>
       <c r="B114" t="s" s="38">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C114" s="14"/>
       <c r="D114" s="14"/>
@@ -5607,11 +5863,13 @@
       <c r="K114" s="14"/>
       <c r="L114" s="14"/>
       <c r="M114" s="14"/>
+      <c r="N114" s="14"/>
+      <c r="O114" s="14"/>
     </row>
     <row r="115" ht="68.35" customHeight="1">
       <c r="A115" s="11"/>
       <c r="B115" t="s" s="39">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C115" s="22"/>
       <c r="D115" s="22"/>
@@ -5624,11 +5882,13 @@
       <c r="K115" s="22"/>
       <c r="L115" s="22"/>
       <c r="M115" s="22"/>
+      <c r="N115" s="22"/>
+      <c r="O115" s="22"/>
     </row>
     <row r="116" ht="32.35" customHeight="1">
       <c r="A116" s="11"/>
       <c r="B116" t="s" s="38">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
@@ -5641,11 +5901,13 @@
       <c r="K116" s="14"/>
       <c r="L116" s="14"/>
       <c r="M116" s="14"/>
+      <c r="N116" s="14"/>
+      <c r="O116" s="14"/>
     </row>
     <row r="117" ht="20.35" customHeight="1">
       <c r="A117" s="11"/>
       <c r="B117" t="s" s="39">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C117" s="22"/>
       <c r="D117" s="22"/>
@@ -5658,11 +5920,13 @@
       <c r="K117" s="22"/>
       <c r="L117" s="22"/>
       <c r="M117" s="22"/>
+      <c r="N117" s="22"/>
+      <c r="O117" s="22"/>
     </row>
     <row r="118" ht="68.35" customHeight="1">
       <c r="A118" s="11"/>
       <c r="B118" t="s" s="38">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C118" s="14"/>
       <c r="D118" s="14"/>
@@ -5675,11 +5939,13 @@
       <c r="K118" s="14"/>
       <c r="L118" s="14"/>
       <c r="M118" s="14"/>
+      <c r="N118" s="14"/>
+      <c r="O118" s="14"/>
     </row>
     <row r="119" ht="20.35" customHeight="1">
       <c r="A119" s="11"/>
       <c r="B119" t="s" s="39">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C119" s="22"/>
       <c r="D119" s="22"/>
@@ -5692,11 +5958,13 @@
       <c r="K119" s="22"/>
       <c r="L119" s="22"/>
       <c r="M119" s="22"/>
+      <c r="N119" s="22"/>
+      <c r="O119" s="22"/>
     </row>
     <row r="120" ht="32.35" customHeight="1">
       <c r="A120" s="11"/>
       <c r="B120" t="s" s="38">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C120" s="14"/>
       <c r="D120" s="14"/>
@@ -5709,11 +5977,13 @@
       <c r="K120" s="14"/>
       <c r="L120" s="14"/>
       <c r="M120" s="14"/>
+      <c r="N120" s="14"/>
+      <c r="O120" s="14"/>
     </row>
     <row r="121" ht="32.35" customHeight="1">
       <c r="A121" s="11"/>
       <c r="B121" t="s" s="39">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C121" s="22"/>
       <c r="D121" s="22"/>
@@ -5726,11 +5996,13 @@
       <c r="K121" s="22"/>
       <c r="L121" s="22"/>
       <c r="M121" s="22"/>
+      <c r="N121" s="22"/>
+      <c r="O121" s="22"/>
     </row>
     <row r="122" ht="20.35" customHeight="1">
       <c r="A122" s="11"/>
       <c r="B122" t="s" s="38">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
@@ -5743,11 +6015,13 @@
       <c r="K122" s="14"/>
       <c r="L122" s="14"/>
       <c r="M122" s="14"/>
+      <c r="N122" s="14"/>
+      <c r="O122" s="14"/>
     </row>
     <row r="123" ht="32.35" customHeight="1">
       <c r="A123" s="11"/>
       <c r="B123" t="s" s="39">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C123" s="22"/>
       <c r="D123" s="22"/>
@@ -5760,11 +6034,13 @@
       <c r="K123" s="22"/>
       <c r="L123" s="22"/>
       <c r="M123" s="22"/>
+      <c r="N123" s="22"/>
+      <c r="O123" s="22"/>
     </row>
     <row r="124" ht="44.35" customHeight="1">
       <c r="A124" s="11"/>
       <c r="B124" t="s" s="38">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C124" s="14"/>
       <c r="D124" s="14"/>
@@ -5777,11 +6053,13 @@
       <c r="K124" s="14"/>
       <c r="L124" s="14"/>
       <c r="M124" s="14"/>
+      <c r="N124" s="14"/>
+      <c r="O124" s="14"/>
     </row>
     <row r="125" ht="32.35" customHeight="1">
       <c r="A125" s="11"/>
       <c r="B125" t="s" s="39">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C125" s="22"/>
       <c r="D125" s="22"/>
@@ -5794,11 +6072,13 @@
       <c r="K125" s="22"/>
       <c r="L125" s="22"/>
       <c r="M125" s="22"/>
+      <c r="N125" s="22"/>
+      <c r="O125" s="22"/>
     </row>
     <row r="126" ht="56.35" customHeight="1">
       <c r="A126" s="11"/>
       <c r="B126" t="s" s="38">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C126" s="14"/>
       <c r="D126" s="14"/>
@@ -5811,11 +6091,13 @@
       <c r="K126" s="14"/>
       <c r="L126" s="14"/>
       <c r="M126" s="14"/>
+      <c r="N126" s="14"/>
+      <c r="O126" s="14"/>
     </row>
     <row r="127" ht="32.65" customHeight="1">
       <c r="A127" s="11"/>
       <c r="B127" t="s" s="28">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C127" s="22"/>
       <c r="D127" s="22"/>
@@ -5828,11 +6110,13 @@
       <c r="K127" s="22"/>
       <c r="L127" s="22"/>
       <c r="M127" s="22"/>
+      <c r="N127" s="22"/>
+      <c r="O127" s="22"/>
     </row>
     <row r="128" ht="21" customHeight="1">
       <c r="A128" s="29"/>
       <c r="B128" t="s" s="30">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C128" s="34"/>
       <c r="D128" s="14"/>
@@ -5845,11 +6129,13 @@
       <c r="K128" s="14"/>
       <c r="L128" s="14"/>
       <c r="M128" s="14"/>
+      <c r="N128" s="14"/>
+      <c r="O128" s="14"/>
     </row>
     <row r="129" ht="32.65" customHeight="1">
       <c r="A129" s="11"/>
       <c r="B129" t="s" s="37">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C129" s="22"/>
       <c r="D129" s="22"/>
@@ -5862,11 +6148,13 @@
       <c r="K129" s="22"/>
       <c r="L129" s="22"/>
       <c r="M129" s="22"/>
+      <c r="N129" s="22"/>
+      <c r="O129" s="22"/>
     </row>
     <row r="130" ht="32.65" customHeight="1">
       <c r="A130" s="11"/>
-      <c r="B130" t="s" s="44">
-        <v>336</v>
+      <c r="B130" t="s" s="45">
+        <v>340</v>
       </c>
       <c r="C130" s="14"/>
       <c r="D130" s="14"/>
@@ -5879,13 +6167,15 @@
       <c r="K130" s="14"/>
       <c r="L130" s="14"/>
       <c r="M130" s="14"/>
+      <c r="N130" s="14"/>
+      <c r="O130" s="14"/>
     </row>
     <row r="131" ht="21" customHeight="1">
       <c r="A131" s="29"/>
       <c r="B131" t="s" s="35">
-        <v>337</v>
-      </c>
-      <c r="C131" s="48"/>
+        <v>341</v>
+      </c>
+      <c r="C131" s="49"/>
       <c r="D131" s="22"/>
       <c r="E131" s="22"/>
       <c r="F131" s="22"/>
@@ -5896,11 +6186,13 @@
       <c r="K131" s="22"/>
       <c r="L131" s="22"/>
       <c r="M131" s="22"/>
+      <c r="N131" s="22"/>
+      <c r="O131" s="22"/>
     </row>
     <row r="132" ht="33" customHeight="1">
       <c r="A132" s="29"/>
       <c r="B132" t="s" s="30">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C132" s="34"/>
       <c r="D132" s="14"/>
@@ -5913,11 +6205,13 @@
       <c r="K132" s="14"/>
       <c r="L132" s="14"/>
       <c r="M132" s="14"/>
+      <c r="N132" s="14"/>
+      <c r="O132" s="14"/>
     </row>
     <row r="133" ht="45" customHeight="1">
       <c r="A133" s="11"/>
-      <c r="B133" t="s" s="50">
-        <v>339</v>
+      <c r="B133" t="s" s="51">
+        <v>343</v>
       </c>
       <c r="C133" s="22"/>
       <c r="D133" s="22"/>
@@ -5930,11 +6224,13 @@
       <c r="K133" s="22"/>
       <c r="L133" s="22"/>
       <c r="M133" s="22"/>
+      <c r="N133" s="22"/>
+      <c r="O133" s="22"/>
     </row>
     <row r="134" ht="33" customHeight="1">
       <c r="A134" s="29"/>
       <c r="B134" t="s" s="30">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C134" s="34"/>
       <c r="D134" s="14"/>
@@ -5947,11 +6243,13 @@
       <c r="K134" s="14"/>
       <c r="L134" s="14"/>
       <c r="M134" s="14"/>
+      <c r="N134" s="14"/>
+      <c r="O134" s="14"/>
     </row>
     <row r="135" ht="33" customHeight="1">
       <c r="A135" s="11"/>
-      <c r="B135" t="s" s="50">
-        <v>341</v>
+      <c r="B135" t="s" s="51">
+        <v>345</v>
       </c>
       <c r="C135" s="22"/>
       <c r="D135" s="22"/>
@@ -5964,11 +6262,13 @@
       <c r="K135" s="22"/>
       <c r="L135" s="22"/>
       <c r="M135" s="22"/>
+      <c r="N135" s="22"/>
+      <c r="O135" s="22"/>
     </row>
     <row r="136" ht="21" customHeight="1">
       <c r="A136" s="29"/>
       <c r="B136" t="s" s="30">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C136" s="34"/>
       <c r="D136" s="14"/>
@@ -5981,11 +6281,13 @@
       <c r="K136" s="14"/>
       <c r="L136" s="14"/>
       <c r="M136" s="14"/>
+      <c r="N136" s="14"/>
+      <c r="O136" s="14"/>
     </row>
     <row r="137" ht="32.65" customHeight="1">
       <c r="A137" s="11"/>
       <c r="B137" t="s" s="37">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C137" s="22"/>
       <c r="D137" s="22"/>
@@ -5998,11 +6300,13 @@
       <c r="K137" s="22"/>
       <c r="L137" s="22"/>
       <c r="M137" s="22"/>
+      <c r="N137" s="22"/>
+      <c r="O137" s="22"/>
     </row>
     <row r="138" ht="32.65" customHeight="1">
       <c r="A138" s="11"/>
-      <c r="B138" t="s" s="44">
-        <v>344</v>
+      <c r="B138" t="s" s="45">
+        <v>348</v>
       </c>
       <c r="C138" s="14"/>
       <c r="D138" s="14"/>
@@ -6015,13 +6319,15 @@
       <c r="K138" s="14"/>
       <c r="L138" s="14"/>
       <c r="M138" s="14"/>
+      <c r="N138" s="14"/>
+      <c r="O138" s="14"/>
     </row>
     <row r="139" ht="33" customHeight="1">
       <c r="A139" s="29"/>
       <c r="B139" t="s" s="35">
-        <v>345</v>
-      </c>
-      <c r="C139" s="48"/>
+        <v>349</v>
+      </c>
+      <c r="C139" s="49"/>
       <c r="D139" s="22"/>
       <c r="E139" s="22"/>
       <c r="F139" s="22"/>
@@ -6032,11 +6338,13 @@
       <c r="K139" s="22"/>
       <c r="L139" s="22"/>
       <c r="M139" s="22"/>
+      <c r="N139" s="22"/>
+      <c r="O139" s="22"/>
     </row>
     <row r="140" ht="32.65" customHeight="1">
       <c r="A140" s="11"/>
-      <c r="B140" t="s" s="45">
-        <v>346</v>
+      <c r="B140" t="s" s="46">
+        <v>350</v>
       </c>
       <c r="C140" s="14"/>
       <c r="D140" s="14"/>
@@ -6049,11 +6357,15 @@
       <c r="K140" s="14"/>
       <c r="L140" s="14"/>
       <c r="M140" s="14"/>
+      <c r="N140" s="14"/>
+      <c r="O140" s="14"/>
     </row>
     <row r="141" ht="32.65" customHeight="1">
-      <c r="A141" s="11"/>
+      <c r="A141" t="s" s="41">
+        <v>15</v>
+      </c>
       <c r="B141" t="s" s="28">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C141" s="22"/>
       <c r="D141" s="22"/>
@@ -6066,11 +6378,13 @@
       <c r="K141" s="22"/>
       <c r="L141" s="22"/>
       <c r="M141" s="22"/>
+      <c r="N141" s="22"/>
+      <c r="O141" s="22"/>
     </row>
     <row r="142" ht="21" customHeight="1">
       <c r="A142" s="29"/>
       <c r="B142" t="s" s="30">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C142" s="34"/>
       <c r="D142" s="14"/>
@@ -6083,13 +6397,15 @@
       <c r="K142" s="14"/>
       <c r="L142" s="14"/>
       <c r="M142" s="14"/>
+      <c r="N142" s="14"/>
+      <c r="O142" s="14"/>
     </row>
     <row r="143" ht="21" customHeight="1">
       <c r="A143" s="29"/>
       <c r="B143" t="s" s="35">
-        <v>349</v>
-      </c>
-      <c r="C143" s="48"/>
+        <v>353</v>
+      </c>
+      <c r="C143" s="49"/>
       <c r="D143" s="22"/>
       <c r="E143" s="22"/>
       <c r="F143" s="22"/>
@@ -6100,11 +6416,13 @@
       <c r="K143" s="22"/>
       <c r="L143" s="22"/>
       <c r="M143" s="22"/>
+      <c r="N143" s="22"/>
+      <c r="O143" s="22"/>
     </row>
     <row r="144" ht="45" customHeight="1">
       <c r="A144" s="11"/>
-      <c r="B144" t="s" s="51">
-        <v>350</v>
+      <c r="B144" t="s" s="52">
+        <v>354</v>
       </c>
       <c r="C144" s="14"/>
       <c r="D144" s="14"/>
@@ -6117,13 +6435,15 @@
       <c r="K144" s="14"/>
       <c r="L144" s="14"/>
       <c r="M144" s="14"/>
+      <c r="N144" s="14"/>
+      <c r="O144" s="14"/>
     </row>
     <row r="145" ht="45" customHeight="1">
       <c r="A145" s="29"/>
       <c r="B145" t="s" s="35">
-        <v>351</v>
-      </c>
-      <c r="C145" s="48"/>
+        <v>355</v>
+      </c>
+      <c r="C145" s="49"/>
       <c r="D145" s="22"/>
       <c r="E145" s="22"/>
       <c r="F145" s="22"/>
@@ -6134,11 +6454,13 @@
       <c r="K145" s="22"/>
       <c r="L145" s="22"/>
       <c r="M145" s="22"/>
+      <c r="N145" s="22"/>
+      <c r="O145" s="22"/>
     </row>
     <row r="146" ht="32.35" customHeight="1">
       <c r="A146" s="11"/>
-      <c r="B146" t="s" s="52">
-        <v>352</v>
+      <c r="B146" t="s" s="53">
+        <v>356</v>
       </c>
       <c r="C146" s="14"/>
       <c r="D146" s="14"/>
@@ -6151,11 +6473,13 @@
       <c r="K146" s="14"/>
       <c r="L146" s="14"/>
       <c r="M146" s="14"/>
+      <c r="N146" s="14"/>
+      <c r="O146" s="14"/>
     </row>
     <row r="147" ht="20.65" customHeight="1">
       <c r="A147" s="11"/>
       <c r="B147" t="s" s="28">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C147" s="22"/>
       <c r="D147" s="22"/>
@@ -6168,11 +6492,13 @@
       <c r="K147" s="22"/>
       <c r="L147" s="22"/>
       <c r="M147" s="22"/>
+      <c r="N147" s="22"/>
+      <c r="O147" s="22"/>
     </row>
     <row r="148" ht="33" customHeight="1">
       <c r="A148" s="29"/>
       <c r="B148" t="s" s="30">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C148" s="34"/>
       <c r="D148" s="14"/>
@@ -6185,11 +6511,13 @@
       <c r="K148" s="14"/>
       <c r="L148" s="14"/>
       <c r="M148" s="14"/>
+      <c r="N148" s="14"/>
+      <c r="O148" s="14"/>
     </row>
     <row r="149" ht="44.65" customHeight="1">
       <c r="A149" s="11"/>
       <c r="B149" t="s" s="37">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C149" s="22"/>
       <c r="D149" s="22"/>
@@ -6202,11 +6530,13 @@
       <c r="K149" s="22"/>
       <c r="L149" s="22"/>
       <c r="M149" s="22"/>
+      <c r="N149" s="22"/>
+      <c r="O149" s="22"/>
     </row>
     <row r="150" ht="32.35" customHeight="1">
       <c r="A150" s="11"/>
       <c r="B150" t="s" s="38">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C150" s="14"/>
       <c r="D150" s="14"/>
@@ -6219,11 +6549,13 @@
       <c r="K150" s="14"/>
       <c r="L150" s="14"/>
       <c r="M150" s="14"/>
+      <c r="N150" s="14"/>
+      <c r="O150" s="14"/>
     </row>
     <row r="151" ht="20.65" customHeight="1">
       <c r="A151" s="11"/>
       <c r="B151" t="s" s="28">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C151" s="22"/>
       <c r="D151" s="22"/>
@@ -6236,11 +6568,15 @@
       <c r="K151" s="22"/>
       <c r="L151" s="22"/>
       <c r="M151" s="22"/>
+      <c r="N151" s="22"/>
+      <c r="O151" s="22"/>
     </row>
     <row r="152" ht="45" customHeight="1">
-      <c r="A152" s="29"/>
+      <c r="A152" t="s" s="54">
+        <v>15</v>
+      </c>
       <c r="B152" t="s" s="30">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C152" s="34"/>
       <c r="D152" s="14"/>
@@ -6253,13 +6589,15 @@
       <c r="K152" s="14"/>
       <c r="L152" s="14"/>
       <c r="M152" s="14"/>
+      <c r="N152" s="14"/>
+      <c r="O152" s="14"/>
     </row>
     <row r="153" ht="21" customHeight="1">
       <c r="A153" s="29"/>
       <c r="B153" t="s" s="35">
-        <v>359</v>
-      </c>
-      <c r="C153" s="48"/>
+        <v>363</v>
+      </c>
+      <c r="C153" s="49"/>
       <c r="D153" s="22"/>
       <c r="E153" s="22"/>
       <c r="F153" s="22"/>
@@ -6270,11 +6608,13 @@
       <c r="K153" s="22"/>
       <c r="L153" s="22"/>
       <c r="M153" s="22"/>
+      <c r="N153" s="22"/>
+      <c r="O153" s="22"/>
     </row>
     <row r="154" ht="33" customHeight="1">
       <c r="A154" s="29"/>
       <c r="B154" t="s" s="30">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C154" s="34"/>
       <c r="D154" s="14"/>
@@ -6287,13 +6627,15 @@
       <c r="K154" s="14"/>
       <c r="L154" s="14"/>
       <c r="M154" s="14"/>
+      <c r="N154" s="14"/>
+      <c r="O154" s="14"/>
     </row>
     <row r="155" ht="33" customHeight="1">
       <c r="A155" s="29"/>
       <c r="B155" t="s" s="35">
-        <v>361</v>
-      </c>
-      <c r="C155" s="48"/>
+        <v>365</v>
+      </c>
+      <c r="C155" s="49"/>
       <c r="D155" s="22"/>
       <c r="E155" s="22"/>
       <c r="F155" s="22"/>
@@ -6304,11 +6646,13 @@
       <c r="K155" s="22"/>
       <c r="L155" s="22"/>
       <c r="M155" s="22"/>
+      <c r="N155" s="22"/>
+      <c r="O155" s="22"/>
     </row>
     <row r="156" ht="21" customHeight="1">
       <c r="A156" s="29"/>
       <c r="B156" t="s" s="30">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C156" s="34"/>
       <c r="D156" s="14"/>
@@ -6321,11 +6665,13 @@
       <c r="K156" s="14"/>
       <c r="L156" s="14"/>
       <c r="M156" s="14"/>
+      <c r="N156" s="14"/>
+      <c r="O156" s="14"/>
     </row>
     <row r="157" ht="32.65" customHeight="1">
       <c r="A157" s="11"/>
       <c r="B157" t="s" s="37">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C157" s="22"/>
       <c r="D157" s="22"/>
@@ -6338,11 +6684,13 @@
       <c r="K157" s="22"/>
       <c r="L157" s="22"/>
       <c r="M157" s="22"/>
+      <c r="N157" s="22"/>
+      <c r="O157" s="22"/>
     </row>
     <row r="158" ht="44.35" customHeight="1">
       <c r="A158" s="11"/>
       <c r="B158" t="s" s="38">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C158" s="14"/>
       <c r="D158" s="14"/>
@@ -6355,11 +6703,13 @@
       <c r="K158" s="14"/>
       <c r="L158" s="14"/>
       <c r="M158" s="14"/>
+      <c r="N158" s="14"/>
+      <c r="O158" s="14"/>
     </row>
     <row r="159" ht="32.35" customHeight="1">
       <c r="A159" s="11"/>
       <c r="B159" t="s" s="39">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C159" s="22"/>
       <c r="D159" s="22"/>
@@ -6372,10 +6722,12 @@
       <c r="K159" s="22"/>
       <c r="L159" s="22"/>
       <c r="M159" s="22"/>
+      <c r="N159" s="22"/>
+      <c r="O159" s="22"/>
     </row>
     <row r="160" ht="20.05" customHeight="1">
       <c r="A160" s="11"/>
-      <c r="B160" s="53"/>
+      <c r="B160" s="55"/>
       <c r="C160" s="14"/>
       <c r="D160" s="14"/>
       <c r="E160" s="14"/>
@@ -6387,10 +6739,12 @@
       <c r="K160" s="14"/>
       <c r="L160" s="14"/>
       <c r="M160" s="14"/>
+      <c r="N160" s="14"/>
+      <c r="O160" s="14"/>
     </row>
     <row r="161" ht="20.05" customHeight="1">
       <c r="A161" s="11"/>
-      <c r="B161" s="54"/>
+      <c r="B161" s="56"/>
       <c r="C161" s="22"/>
       <c r="D161" s="22"/>
       <c r="E161" s="22"/>
@@ -6402,10 +6756,12 @@
       <c r="K161" s="22"/>
       <c r="L161" s="22"/>
       <c r="M161" s="22"/>
+      <c r="N161" s="22"/>
+      <c r="O161" s="22"/>
     </row>
     <row r="162" ht="20.05" customHeight="1">
       <c r="A162" s="11"/>
-      <c r="B162" s="53"/>
+      <c r="B162" s="55"/>
       <c r="C162" s="14"/>
       <c r="D162" s="14"/>
       <c r="E162" s="14"/>
@@ -6417,10 +6773,12 @@
       <c r="K162" s="14"/>
       <c r="L162" s="14"/>
       <c r="M162" s="14"/>
+      <c r="N162" s="14"/>
+      <c r="O162" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" location="" tooltip="" display=""/>
